--- a/tie_n.xlsx
+++ b/tie_n.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="tie_n" localSheetId="0">Sheet1!$A$2:$B$51</definedName>
+    <definedName name="tie_n_probability" localSheetId="1">Sheet2!$A$1:$B$50</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tie_n.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="tie_n_probability.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tie_n_probability.txt">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="tie_n.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hcardena:CSC:200:tie_n.txt">
       <textFields count="2">
         <textField/>
@@ -35,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>4732204796990674894870615078359302031762607019247075062205973705019772913136149781117856649811827673099946525438870760782264372011619809245684972141804831040569823342859193546848889779588273579159792968898416689484001590224283895884145701811872318198273548271131144454768255104976900508093576902070089134754100</t>
   </si>
@@ -95,6 +105,24 @@
   </si>
   <si>
     <t>number of tieing boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y0    </t>
+  </si>
+  <si>
+    <t>=0.0015182 ± 0.00187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A     </t>
+  </si>
+  <si>
+    <t>=9.9726 ± 0.581</t>
+  </si>
+  <si>
+    <t>invTau</t>
+  </si>
+  <si>
+    <t>=1.1532 ± 0.0275</t>
   </si>
 </sst>
 </file>
@@ -104,10 +132,26 @@
   <numFmts count="1">
     <numFmt numFmtId="188" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,8 +174,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -139,7 +199,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +239,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0391422681333075"/>
+          <c:y val="0.0113207547169811"/>
+          <c:w val="0.939567598946162"/>
+          <c:h val="0.927647897786362"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -444,6 +530,355 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.254804051555411"/>
+                  <c:y val="-0.649350649350649"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="4000" baseline="0"/>
+                      <a:t>y = 32.744e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="4000" baseline="30000"/>
+                      <a:t>-1.24x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="4000" baseline="0"/>
+                      <a:t>
+R² = 0.99866</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="4000"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.138616938616938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0477087860315751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0180017891303504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00591785590877909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00198322459109251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00061685243840803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000193147618053397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.77719528853664E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.73392287693867E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.04638921989685E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.47179356561147E-6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>4.19860991482311E-7</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>1.19941819378716E-7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>3.36961424412486E-8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>9.4756257511064E-9</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>2.6299944202821E-9</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>7.30465108791386E-10</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>2.00757857862556E-10</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>5.52031548081465E-11</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>1.50485920090879E-11</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>4.10385635227531E-12</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>1.11107188819428E-12</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>3.00897644815113E-13</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>8.09885262270614E-14</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>2.18035787294692E-14</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>5.83894976145826E-15</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.56394472274643E-15</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>4.16976630864799E-16</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>1.11190277240611E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2134771192"/>
+        <c:axId val="-2132424616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2134771192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132424616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2132424616"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134771192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -461,16 +896,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -492,8 +927,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tie_n" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tie_n" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tie_n_probability" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="B33" sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1240,6 +1714,451 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.28571428571428498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.138616938616938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4.77087860315751E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.8001789130350401E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5.9178559087790898E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.98322459109251E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6.1685243840803002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.9314761805339699E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5.7771952885366403E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.7339228769386699E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5.04638921989685E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.47179356561147E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.1986099148231099E-7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.1994181937871601E-7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.3696142441248597E-8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.4756257511063993E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.6299944202821002E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.3046510879138603E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0075785786255601E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.5203154808146501E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.5048592009087901E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.1038563522753103E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.1110718881942799E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.0089764481511299E-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8.0988526227061398E-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.1803578729469201E-14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.8389497614582599E-15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.56394472274643E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.1697663086479901E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.1119027724061101E-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.9530516953154602E-17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.8438385420627001E-18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.0760519449212998E-18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.4953107770910497E-19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.44999932140569E-19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3.8263156434717499E-20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.00683525387103E-20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.6495240832560802E-21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6.9544677172187298E-22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.82552258106472E-22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.7808137747405598E-23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.25210287773902E-23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3.2723528684913399E-24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8.5526507679565408E-25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.23101358909823E-25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5.81998177901173E-26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.5155528288784799E-26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.9467199815158702E-27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
